--- a/public/admin/fffi_payslip_format.xlsx
+++ b/public/admin/fffi_payslip_format.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Department</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>UAN_Number</t>
   </si>
   <si>
@@ -218,7 +221,13 @@
     <t>manger</t>
   </si>
   <si>
+    <t>15-5-2024</t>
+  </si>
+  <si>
     <t>sales</t>
+  </si>
+  <si>
+    <t>banglore</t>
   </si>
   <si>
     <t>hdfc0001</t>
@@ -228,11 +237,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -845,7 +855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,16 +865,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,29 +1413,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL4"/>
+  <dimension ref="A1:BM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="59" width="31" customWidth="1"/>
-    <col min="60" max="78" width="26" customWidth="1"/>
+    <col min="1" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" style="3" customWidth="1"/>
+    <col min="5" max="60" width="31" customWidth="1"/>
+    <col min="61" max="79" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:64">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:65">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1509,10 +1524,10 @@
       <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="4" t="s">
@@ -1590,58 +1605,58 @@
       <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BL1" s="1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:60">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45303</v>
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2">
         <v>10001</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>12345</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>101</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1650,11 +1665,11 @@
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
       <c r="T2">
         <v>2</v>
       </c>
@@ -1722,11 +1737,11 @@
         <v>2</v>
       </c>
       <c r="AP2">
+        <v>2</v>
+      </c>
+      <c r="AQ2">
         <v>22</v>
       </c>
-      <c r="AQ2">
-        <v>2</v>
-      </c>
       <c r="AR2">
         <v>2</v>
       </c>
@@ -1775,12 +1790,15 @@
       <c r="BG2">
         <v>2</v>
       </c>
+      <c r="BH2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:59">
+    <row r="4" s="2" customFormat="1" spans="1:60">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1836,6 +1854,7 @@
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
